--- a/PlanilhaResultado.xlsx
+++ b/PlanilhaResultado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\OneDrive\Documentos\03. Faculdade\Metodos de Otimização\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamella.candeia\Documents\GitHub\MetodosDeOtimizao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935FB0BB-E5CC-43E1-A5BA-764ED4F78967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BE3D7D-BAEB-4186-AA12-D0CC908B9A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 FO (seg.)</t>
   </si>
   <si>
-    <t>0.00000</t>
+    <t>0.02900</t>
   </si>
 </sst>
 </file>
@@ -290,68 +290,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,17 +636,17 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -675,29 +675,29 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -712,29 +712,29 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="16" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -749,21 +749,21 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -778,21 +778,21 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -807,33 +807,33 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="3">
         <v>182</v>
       </c>
-      <c r="G6" s="14">
-        <v>976451846</v>
+      <c r="G6" s="21">
+        <v>234048412</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14">
-        <v>11.13</v>
+      <c r="J6" s="22"/>
+      <c r="K6" s="21">
+        <v>135.81</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14">
-        <v>1.304</v>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21">
+        <v>30.303999999999998</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -848,7 +848,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -877,7 +877,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -906,7 +906,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -935,7 +935,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -964,7 +964,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -993,7 +993,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1051,7 +1051,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1109,7 +1109,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1167,7 +1167,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1196,7 +1196,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1225,7 +1225,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1254,7 +1254,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1283,7 +1283,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1312,7 +1312,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1341,7 +1341,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1459,6 +1459,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="M3:N5"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="B2:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F2:F5"/>
@@ -1466,12 +1472,6 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="I3:J5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="M3:N5"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
